--- a/2015-2016/clases/informatica_aplicada/clase_2/listado_alumnos.xlsx
+++ b/2015-2016/clases/informatica_aplicada/clase_2/listado_alumnos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>Nombre</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>Iva</t>
+  </si>
+  <si>
+    <t>Grupo Edades Estudiantes</t>
+  </si>
+  <si>
+    <t>Frecuencia Edades</t>
   </si>
 </sst>
 </file>
@@ -145,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-300A]\ #,##0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +170,21 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,10 +348,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -354,14 +376,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,16 +495,16 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>22</c:v>
@@ -482,17 +512,11 @@
                 <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,11 +533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="97942144"/>
-        <c:axId val="97956224"/>
+        <c:axId val="110525056"/>
+        <c:axId val="110539136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97942144"/>
+        <c:axId val="110525056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -522,7 +546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97956224"/>
+        <c:crossAx val="110539136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -530,7 +554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97956224"/>
+        <c:axId val="110539136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -541,7 +565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97942144"/>
+        <c:crossAx val="110525056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -550,6 +574,137 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frecuencia Edades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$20:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$20:$I$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -590,6 +745,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -885,17 +1070,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O15"/>
+  <dimension ref="A2:O1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="9" width="22.140625" customWidth="1"/>
+    <col min="4" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
     <col min="10" max="10" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -912,7 +1099,7 @@
       <c r="A4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -974,7 +1161,7 @@
         <v>fin de mes</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G11" si="0">YEAR($C$2)-YEAR(E5)</f>
+        <f>INT(YEARFRAC(E5,$C$2))</f>
         <v>21</v>
       </c>
       <c r="H5" s="7">
@@ -984,7 +1171,7 @@
         <v>0.12</v>
       </c>
       <c r="J5" s="2" t="str">
-        <f t="shared" ref="J5:J15" si="1">CONCATENATE(D5," ",C5)</f>
+        <f t="shared" ref="J5:J15" si="0">CONCATENATE(D5," ",C5)</f>
         <v>Hidalgo Campoverde Cristina Belen</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1015,8 +1202,8 @@
         <v>fin de mes</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" ref="G6:G15" si="1">INT(YEARFRAC(E6,$C$2))</f>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>450.53</v>
@@ -1025,7 +1212,7 @@
         <v>0.12</v>
       </c>
       <c r="J6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Heredia Godoy Alan Ramon</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1056,8 +1243,8 @@
         <v>comienzo mes</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="H7" s="7">
         <v>430.34</v>
@@ -1066,7 +1253,7 @@
         <v>0.12</v>
       </c>
       <c r="J7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Guerrero Gaona Jorge Luis</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -1097,8 +1284,8 @@
         <v>comienzo mes</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>1043.4855</v>
@@ -1107,7 +1294,7 @@
         <v>0.12</v>
       </c>
       <c r="J8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Quito Vera Alvaro Omar</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -1138,8 +1325,8 @@
         <v>fin de mes</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>500</v>
@@ -1148,7 +1335,7 @@
         <v>0.12</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Serrano Robles Danessa Magdalena</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -1179,7 +1366,7 @@
         <v>comienzo mes</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H10" s="7">
@@ -1189,7 +1376,7 @@
         <v>0.12</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Carmona Valarezo David Fernando</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -1220,7 +1407,7 @@
         <v>comienzo mes</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H11" s="7">
@@ -1230,7 +1417,7 @@
         <v>0.12</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Saens Claudia Dennise</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -1255,9 +1442,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="6">
-        <v>21</v>
-      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="7">
         <v>500</v>
       </c>
@@ -1265,7 +1450,7 @@
         <v>0.12</v>
       </c>
       <c r="J12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Rodriguez Solano Estefany Michelle</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -1290,9 +1475,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="6">
-        <v>22</v>
-      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="7">
         <v>500</v>
       </c>
@@ -1300,7 +1483,7 @@
         <v>0.12</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Ochoa Blacio Cristian Mauricio</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -1331,8 +1514,8 @@
         <v>fin de mes</v>
       </c>
       <c r="G14" s="6">
-        <f>YEAR($C$2)-YEAR(E14)</f>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>500</v>
@@ -1341,7 +1524,7 @@
         <v>0.12</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Zumba Villalba Kleber Fabricio</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -1371,26 +1554,247 @@
         <f t="shared" si="2"/>
         <v>fin de mes</v>
       </c>
-      <c r="G15" s="19">
-        <f>YEAR($C$2)-YEAR(E15)</f>
-        <v>24</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H15" s="19">
         <v>500</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>0.12</v>
       </c>
       <c r="J15" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Aguilar Cherrez Gabriel Fernando</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="22" t="s">
-        <v>10</v>
-      </c>
+      <c r="L15" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f>C5</f>
+        <v>Cristina Belen</v>
+      </c>
+      <c r="D20">
+        <f>G5</f>
+        <v>21</v>
+      </c>
+      <c r="E20" s="26">
+        <f>COUNTIF(G5:G15,D20)</f>
+        <v>3</v>
+      </c>
+      <c r="F20" s="24">
+        <f>E20*11/100</f>
+        <v>0.33</v>
+      </c>
+      <c r="H20" s="12">
+        <v>21</v>
+      </c>
+      <c r="I20" s="27">
+        <f>F20</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" t="str">
+        <f t="shared" ref="C21:C31" si="3">C6</f>
+        <v>Alan Ramon</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D30" si="4">G6</f>
+        <v>20</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="24"/>
+      <c r="H21" s="12">
+        <v>22</v>
+      </c>
+      <c r="I21" s="27">
+        <f>F23</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" t="str">
+        <f t="shared" si="3"/>
+        <v>Jorge Luis</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="E22" s="26">
+        <f>COUNTIF(G7:G17,D22)</f>
+        <v>2</v>
+      </c>
+      <c r="F22" s="24">
+        <f t="shared" ref="F21:F30" si="5">E22*11/100</f>
+        <v>0.22</v>
+      </c>
+      <c r="H22" s="12">
+        <v>23</v>
+      </c>
+      <c r="I22" s="27">
+        <f>F22</f>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="str">
+        <f t="shared" si="3"/>
+        <v>Alvaro Omar</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="E23" s="26">
+        <f>COUNTIF(G8:G18,D23)</f>
+        <v>2</v>
+      </c>
+      <c r="F23" s="24">
+        <f t="shared" si="5"/>
+        <v>0.22</v>
+      </c>
+      <c r="H23" s="12">
+        <v>24</v>
+      </c>
+      <c r="I23" s="27">
+        <f>F29</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" t="str">
+        <f t="shared" si="3"/>
+        <v>Danessa Magdalena</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="24"/>
+      <c r="H24" s="14">
+        <v>27</v>
+      </c>
+      <c r="I24" s="28">
+        <f>F30</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" t="str">
+        <f t="shared" si="3"/>
+        <v>David Fernando</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" t="str">
+        <f t="shared" si="3"/>
+        <v>Claudia Dennise</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" t="str">
+        <f t="shared" si="3"/>
+        <v>Estefany Michelle</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" t="str">
+        <f t="shared" si="3"/>
+        <v>Cristian Mauricio</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" t="str">
+        <f t="shared" si="3"/>
+        <v>Kleber Fabricio</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="E29" s="26">
+        <f>COUNTIF(G14:G24,D29)</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="24">
+        <f t="shared" si="5"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="str">
+        <f t="shared" si="3"/>
+        <v>Gabriel Fernando</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="E30" s="26">
+        <f>COUNTIF(G15:G25,D30)</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="24">
+        <f t="shared" si="5"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>SUM(D20:D30)</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048576" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2015-2016/clases/informatica_aplicada/clase_2/listado_alumnos.xlsx
+++ b/2015-2016/clases/informatica_aplicada/clase_2/listado_alumnos.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -418,7 +418,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -533,11 +532,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110525056"/>
-        <c:axId val="110539136"/>
+        <c:axId val="11214848"/>
+        <c:axId val="11216384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110525056"/>
+        <c:axId val="11214848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110539136"/>
+        <c:crossAx val="11216384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -554,7 +553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110539136"/>
+        <c:axId val="11216384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,14 +564,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110525056"/>
+        <c:crossAx val="11214848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1073,7 +1071,7 @@
   <dimension ref="A2:O1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1615,7 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" t="str">
-        <f t="shared" ref="C21:C31" si="3">C6</f>
+        <f t="shared" ref="C21:C30" si="3">C6</f>
         <v>Alan Ramon</v>
       </c>
       <c r="D21">
@@ -1648,7 +1646,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" ref="F21:F30" si="5">E22*11/100</f>
+        <f t="shared" ref="F22:F30" si="5">E22*11/100</f>
         <v>0.22</v>
       </c>
       <c r="H22" s="12">

--- a/2015-2016/clases/informatica_aplicada/clase_2/listado_alumnos.xlsx
+++ b/2015-2016/clases/informatica_aplicada/clase_2/listado_alumnos.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -418,6 +418,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -532,11 +533,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="11214848"/>
-        <c:axId val="11216384"/>
+        <c:axId val="141899648"/>
+        <c:axId val="118321536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11214848"/>
+        <c:axId val="141899648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -545,7 +546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11216384"/>
+        <c:crossAx val="118321536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -553,7 +554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11216384"/>
+        <c:axId val="118321536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,13 +565,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11214848"/>
+        <c:crossAx val="141899648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1070,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
